--- a/7.单总线CPU/单总线实验资料包(愚人节版)/6.单总线MIPS支持中断微程序逻辑自动生成(2020-4-1).xlsx
+++ b/7.单总线CPU/单总线实验资料包(愚人节版)/6.单总线MIPS支持中断微程序逻辑自动生成(2020-4-1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\3 大三\计算机组成原理\Logisim\hustzc\7.单总线CPU\单总线实验资料包(愚人节版)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE267C0D-EB23-4AA6-8FCA-51E3185CC12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C9C0DD-46BD-4E48-914F-E74DECF117A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>只填0或1，无关项不填</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>addi</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mint</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mex</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1235,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5788,24 +5806,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
@@ -6771,16 +6789,16 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -8579,15 +8597,15 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
       <c r="J31" s="40" t="str">
         <f>IF(LEN(J32)&gt;1,LEFT(J32,LEN(J32)-1),"")</f>
         <v>SLT+ADDI+ERET</v>
@@ -8685,8 +8703,8 @@
   </sheetPr>
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9049,7 +9067,9 @@
       <c r="A6" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="92">
+        <v>4</v>
+      </c>
       <c r="C6" s="60"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -9105,7 +9125,9 @@
       <c r="A7" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="93">
+        <v>5</v>
+      </c>
       <c r="C7" s="71"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
@@ -9161,7 +9183,9 @@
       <c r="A8" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="92">
+        <v>6</v>
+      </c>
       <c r="C8" s="60"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61">
@@ -9217,7 +9241,9 @@
       <c r="A9" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="92">
+        <v>7</v>
+      </c>
       <c r="C9" s="71"/>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
@@ -9273,7 +9299,9 @@
       <c r="A10" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="93">
+        <v>8</v>
+      </c>
       <c r="C10" s="60"/>
       <c r="D10" s="61">
         <v>1</v>
@@ -9331,7 +9359,9 @@
       <c r="A11" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="92">
+        <v>9</v>
+      </c>
       <c r="C11" s="71"/>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
@@ -9387,7 +9417,9 @@
       <c r="A12" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="92">
+        <v>10</v>
+      </c>
       <c r="C12" s="60"/>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -9443,7 +9475,9 @@
       <c r="A13" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="93">
+        <v>11</v>
+      </c>
       <c r="C13" s="71"/>
       <c r="D13" s="72"/>
       <c r="E13" s="72">
@@ -9499,7 +9533,9 @@
       <c r="A14" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="92">
+        <v>12</v>
+      </c>
       <c r="C14" s="60"/>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -9557,7 +9593,9 @@
       <c r="A15" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="92">
+        <v>13</v>
+      </c>
       <c r="C15" s="71"/>
       <c r="D15" s="72"/>
       <c r="E15" s="72"/>
@@ -9615,13 +9653,15 @@
       <c r="A16" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="93">
+        <v>14</v>
+      </c>
       <c r="C16" s="60"/>
       <c r="D16" s="61"/>
-      <c r="E16" s="61">
+      <c r="E16" s="61"/>
+      <c r="F16" s="61">
         <v>1</v>
       </c>
-      <c r="F16" s="61"/>
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
@@ -9652,7 +9692,7 @@
       <c r="AF16" s="78"/>
       <c r="AG16" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>001000000001000000</v>
+        <v>000100000001000000</v>
       </c>
       <c r="AH16" s="68" t="str">
         <f t="shared" si="2"/>
@@ -9660,24 +9700,26 @@
       </c>
       <c r="AI16" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>001000000001000000000000000000</v>
+        <v>000100000001000000000000000000</v>
       </c>
       <c r="AJ16" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>8040000</v>
+        <v>4040000</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A17" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="92">
+        <v>15</v>
+      </c>
       <c r="C17" s="71"/>
       <c r="D17" s="72"/>
-      <c r="E17" s="72">
+      <c r="E17" s="72"/>
+      <c r="F17" s="72">
         <v>1</v>
       </c>
-      <c r="F17" s="72"/>
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
@@ -9697,9 +9739,7 @@
       <c r="S17" s="72"/>
       <c r="T17" s="72"/>
       <c r="U17" s="72"/>
-      <c r="V17" s="72">
-        <v>1</v>
-      </c>
+      <c r="V17" s="72"/>
       <c r="W17" s="72"/>
       <c r="X17" s="72"/>
       <c r="Y17" s="73"/>
@@ -9716,26 +9756,28 @@
       </c>
       <c r="AG17" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>001000000000001100</v>
+        <v>000100000000001100</v>
       </c>
       <c r="AH17" s="68" t="str">
         <f t="shared" si="2"/>
-        <v>010000000011</v>
+        <v>000000000011</v>
       </c>
       <c r="AI17" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>001000000000001100010000000011</v>
+        <v>000100000000001100000000000011</v>
       </c>
       <c r="AJ17" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>800C403</v>
+        <v>400C003</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="92">
+        <v>16</v>
+      </c>
       <c r="C18" s="60">
         <v>1</v>
       </c>
@@ -9791,15 +9833,17 @@
       <c r="A19" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="93">
+        <v>17</v>
+      </c>
       <c r="C19" s="71"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" s="72"/>
-      <c r="G19" s="72">
+      <c r="G19" s="72"/>
+      <c r="H19" s="72">
         <v>1</v>
       </c>
-      <c r="H19" s="72"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
@@ -9828,7 +9872,7 @@
       <c r="AF19" s="76"/>
       <c r="AG19" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000010000000000001</v>
+        <v>000001000000000001</v>
       </c>
       <c r="AH19" s="68" t="str">
         <f t="shared" si="2"/>
@@ -9836,18 +9880,20 @@
       </c>
       <c r="AI19" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000010000000000001000000000000</v>
+        <v>000001000000000001000000000000</v>
       </c>
       <c r="AJ19" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>2001000</v>
+        <v>1001000</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="92">
+        <v>18</v>
+      </c>
       <c r="C20" s="60"/>
       <c r="D20" s="61"/>
       <c r="E20" s="61">
@@ -9856,10 +9902,10 @@
       <c r="F20" s="61"/>
       <c r="G20" s="61"/>
       <c r="H20" s="61"/>
-      <c r="I20" s="61">
+      <c r="I20" s="61"/>
+      <c r="J20" s="61">
         <v>1</v>
       </c>
-      <c r="J20" s="61"/>
       <c r="K20" s="61"/>
       <c r="L20" s="61"/>
       <c r="M20" s="61"/>
@@ -9886,7 +9932,7 @@
       </c>
       <c r="AG20" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>001000100000000000</v>
+        <v>001000010000000000</v>
       </c>
       <c r="AH20" s="68" t="str">
         <f t="shared" si="2"/>
@@ -9894,22 +9940,26 @@
       </c>
       <c r="AI20" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>001000100000000000000000000001</v>
+        <v>001000010000000000000000000001</v>
       </c>
       <c r="AJ20" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>8800001</v>
+        <v>8400001</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A21" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="92">
+        <v>19</v>
+      </c>
       <c r="C21" s="71"/>
       <c r="D21" s="72"/>
       <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
+      <c r="F21" s="72">
+        <v>1</v>
+      </c>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
@@ -9917,7 +9967,9 @@
       <c r="K21" s="72"/>
       <c r="L21" s="72"/>
       <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
+      <c r="N21" s="72">
+        <v>1</v>
+      </c>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
       <c r="Q21" s="72"/>
@@ -9938,7 +9990,7 @@
       <c r="AF21" s="76"/>
       <c r="AG21" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>000100000001000000</v>
       </c>
       <c r="AH21" s="68" t="str">
         <f t="shared" si="2"/>
@@ -9946,22 +9998,26 @@
       </c>
       <c r="AI21" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>000100000001000000000000000000</v>
       </c>
       <c r="AJ21" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4040000</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="93">
+        <v>20</v>
+      </c>
       <c r="C22" s="60"/>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="F22" s="61">
+        <v>1</v>
+      </c>
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
@@ -9973,11 +10029,15 @@
       <c r="O22" s="61"/>
       <c r="P22" s="61"/>
       <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
+      <c r="R22" s="61">
+        <v>1</v>
+      </c>
       <c r="S22" s="61"/>
       <c r="T22" s="61"/>
       <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
+      <c r="V22" s="61">
+        <v>1</v>
+      </c>
       <c r="W22" s="61"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="62"/>
@@ -9990,29 +10050,33 @@
       <c r="AF22" s="78"/>
       <c r="AG22" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>000100000000000100</v>
       </c>
       <c r="AH22" s="68" t="str">
         <f t="shared" si="2"/>
-        <v>000000000000</v>
+        <v>010000000000</v>
       </c>
       <c r="AI22" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>000100000000000100010000000000</v>
       </c>
       <c r="AJ22" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4004400</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A23" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="92">
+        <v>21</v>
+      </c>
       <c r="C23" s="71"/>
       <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
+      <c r="E23" s="72">
+        <v>1</v>
+      </c>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
@@ -10022,11 +10086,15 @@
       <c r="L23" s="72"/>
       <c r="M23" s="72"/>
       <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
+      <c r="O23" s="72">
+        <v>1</v>
+      </c>
       <c r="P23" s="72"/>
       <c r="Q23" s="72"/>
       <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
+      <c r="S23" s="72">
+        <v>1</v>
+      </c>
       <c r="T23" s="72"/>
       <c r="U23" s="72"/>
       <c r="V23" s="72"/>
@@ -10039,33 +10107,39 @@
       <c r="AC23" s="74"/>
       <c r="AD23" s="75"/>
       <c r="AE23" s="73"/>
-      <c r="AF23" s="76"/>
+      <c r="AF23" s="76" t="s">
+        <v>50</v>
+      </c>
       <c r="AG23" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>001000000000100010</v>
       </c>
       <c r="AH23" s="68" t="str">
         <f t="shared" si="2"/>
-        <v>000000000000</v>
+        <v>000000000001</v>
       </c>
       <c r="AI23" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>001000000000100010000000000001</v>
       </c>
       <c r="AJ23" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8022001</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A24" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="92">
+        <v>22</v>
+      </c>
       <c r="C24" s="60"/>
       <c r="D24" s="61"/>
       <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="F24" s="61">
+        <v>1</v>
+      </c>
       <c r="G24" s="61"/>
       <c r="H24" s="61"/>
       <c r="I24" s="61"/>
@@ -10073,7 +10147,9 @@
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
       <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
+      <c r="N24" s="61">
+        <v>1</v>
+      </c>
       <c r="O24" s="61"/>
       <c r="P24" s="61"/>
       <c r="Q24" s="61"/>
@@ -10094,7 +10170,7 @@
       <c r="AF24" s="78"/>
       <c r="AG24" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>000100000001000000</v>
       </c>
       <c r="AH24" s="68" t="str">
         <f t="shared" si="2"/>
@@ -10102,23 +10178,27 @@
       </c>
       <c r="AI24" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>000100000001000000000000000000</v>
       </c>
       <c r="AJ24" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4040000</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A25" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="93">
+        <v>23</v>
+      </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
       <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="G25" s="72">
+        <v>1</v>
+      </c>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
@@ -10131,7 +10211,9 @@
       <c r="Q25" s="72"/>
       <c r="R25" s="72"/>
       <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
+      <c r="T25" s="72">
+        <v>1</v>
+      </c>
       <c r="U25" s="72"/>
       <c r="V25" s="72"/>
       <c r="W25" s="72"/>
@@ -10146,7 +10228,7 @@
       <c r="AF25" s="76"/>
       <c r="AG25" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>000010000000000001</v>
       </c>
       <c r="AH25" s="68" t="str">
         <f t="shared" si="2"/>
@@ -10154,21 +10236,25 @@
       </c>
       <c r="AI25" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>000010000000000001000000000000</v>
       </c>
       <c r="AJ25" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2001000</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A26" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="92">
+        <v>24</v>
+      </c>
       <c r="C26" s="60"/>
       <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="E26" s="61">
+        <v>1</v>
+      </c>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
       <c r="H26" s="61"/>
@@ -10178,7 +10264,9 @@
       <c r="L26" s="61"/>
       <c r="M26" s="61"/>
       <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
+      <c r="O26" s="61">
+        <v>1</v>
+      </c>
       <c r="P26" s="61"/>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
@@ -10195,27 +10283,33 @@
       <c r="AC26" s="63"/>
       <c r="AD26" s="77"/>
       <c r="AE26" s="62"/>
-      <c r="AF26" s="78"/>
+      <c r="AF26" s="78" t="s">
+        <v>50</v>
+      </c>
       <c r="AG26" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>001000000000100000</v>
       </c>
       <c r="AH26" s="68" t="str">
         <f t="shared" si="2"/>
-        <v>000000000000</v>
+        <v>000000000001</v>
       </c>
       <c r="AI26" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>001000000000100000000000000001</v>
       </c>
       <c r="AJ26" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8020001</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A27" s="70"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="92">
+        <v>25</v>
+      </c>
       <c r="C27" s="71"/>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
@@ -10223,7 +10317,9 @@
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
       <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
+      <c r="J27" s="72">
+        <v>1</v>
+      </c>
       <c r="K27" s="72"/>
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
@@ -10238,35 +10334,47 @@
       <c r="V27" s="72"/>
       <c r="W27" s="72"/>
       <c r="X27" s="72"/>
-      <c r="Y27" s="73"/>
+      <c r="Y27" s="73" t="s">
+        <v>50</v>
+      </c>
       <c r="Z27" s="73"/>
       <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
+      <c r="AB27" s="73" t="s">
+        <v>50</v>
+      </c>
       <c r="AC27" s="73"/>
       <c r="AD27" s="75"/>
       <c r="AE27" s="73"/>
-      <c r="AF27" s="76"/>
+      <c r="AF27" s="76" t="s">
+        <v>50</v>
+      </c>
       <c r="AG27" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>000000010000000000</v>
       </c>
       <c r="AH27" s="68" t="str">
         <f t="shared" si="2"/>
-        <v>000000000000</v>
+        <v>000010010001</v>
       </c>
       <c r="AI27" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>000000010000000000000010010001</v>
       </c>
       <c r="AJ27" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400091</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A28" s="70"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="71"/>
+      <c r="A28" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="93">
+        <v>26</v>
+      </c>
+      <c r="C28" s="71">
+        <v>1</v>
+      </c>
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
       <c r="F28" s="72"/>
@@ -10289,33 +10397,41 @@
       <c r="W28" s="72"/>
       <c r="X28" s="72"/>
       <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
+      <c r="Z28" s="73" t="s">
+        <v>50</v>
+      </c>
       <c r="AA28" s="73"/>
       <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
+      <c r="AC28" s="73" t="s">
+        <v>50</v>
+      </c>
       <c r="AD28" s="75"/>
       <c r="AE28" s="73"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>100000000000000000</v>
       </c>
       <c r="AH28" s="68" t="str">
         <f t="shared" si="2"/>
-        <v>000000000000</v>
+        <v>000001001000</v>
       </c>
       <c r="AI28" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>100000000000000000000001001000</v>
       </c>
       <c r="AJ28" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000048</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="92">
+        <v>27</v>
+      </c>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
@@ -10323,7 +10439,9 @@
       <c r="G29" s="61"/>
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
+      <c r="J29" s="61">
+        <v>1</v>
+      </c>
       <c r="K29" s="61"/>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
@@ -10340,27 +10458,31 @@
       <c r="X29" s="61"/>
       <c r="Y29" s="62"/>
       <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
+      <c r="AA29" s="62" t="s">
+        <v>50</v>
+      </c>
       <c r="AB29" s="62"/>
       <c r="AC29" s="62"/>
       <c r="AD29" s="77"/>
       <c r="AE29" s="62"/>
-      <c r="AF29" s="78"/>
+      <c r="AF29" s="78" t="s">
+        <v>50</v>
+      </c>
       <c r="AG29" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000000</v>
+        <v>000000010000000000</v>
       </c>
       <c r="AH29" s="68" t="str">
         <f t="shared" si="2"/>
-        <v>000000000000</v>
+        <v>000000100001</v>
       </c>
       <c r="AI29" s="68" t="str">
         <f t="shared" si="3"/>
-        <v>000000000000000000000000000000</v>
+        <v>000000010000000000000000100001</v>
       </c>
       <c r="AJ29" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400021</v>
       </c>
     </row>
     <row r="30" spans="1:36" s="79" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
@@ -10401,34 +10523,34 @@
       <c r="AJ30" s="84"/>
     </row>
     <row r="31" spans="1:36" s="79" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
       <c r="AA31" s="81"/>
       <c r="AB31" s="81"/>
       <c r="AC31" s="81"/>
@@ -10441,34 +10563,34 @@
       <c r="AJ31" s="84"/>
     </row>
     <row r="32" spans="1:36" s="79" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
       <c r="AA32" s="81"/>
       <c r="AB32" s="81"/>
       <c r="AC32" s="81"/>
@@ -10481,34 +10603,34 @@
       <c r="AJ32" s="84"/>
     </row>
     <row r="33" spans="1:36" s="79" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
       <c r="AA33" s="87" t="s">
         <v>51</v>
       </c>
@@ -10521,34 +10643,34 @@
       <c r="AJ33" s="84"/>
     </row>
     <row r="34" spans="1:36" s="79" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
       <c r="AA34" s="81"/>
       <c r="AB34" s="81"/>
       <c r="AC34" s="81"/>
@@ -12639,7 +12761,7 @@
       <formula>NOT(ISERROR(SEARCH("1",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="10">
+  <dataValidations xWindow="316" yWindow="374" count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="微指令功能" prompt="对于微程序，一条指令执行可能需要多条微指令，这列需要大家合理放置微程序。" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="下址字段" prompt="用于给出当前微指令执行完毕后下一条微指令的位置。" sqref="AG1:AH1048576" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出" prompt="输出，只填为1的情况，为零或无关项x不填" sqref="C20:F29 I20:X29" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
